--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H2">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I2">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J2">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N2">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O2">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P2">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q2">
-        <v>100.3229206272592</v>
+        <v>3.013137674645</v>
       </c>
       <c r="R2">
-        <v>100.3229206272592</v>
+        <v>27.118239071805</v>
       </c>
       <c r="S2">
-        <v>0.09031256357526508</v>
+        <v>0.002212608917744708</v>
       </c>
       <c r="T2">
-        <v>0.09031256357526508</v>
+        <v>0.002212608917744707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H3">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I3">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J3">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P3">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q3">
-        <v>15.93754064755256</v>
+        <v>0.5510746054250001</v>
       </c>
       <c r="R3">
-        <v>15.93754064755256</v>
+        <v>4.959671448825</v>
       </c>
       <c r="S3">
-        <v>0.01434727123139961</v>
+        <v>0.0004046654079454426</v>
       </c>
       <c r="T3">
-        <v>0.01434727123139961</v>
+        <v>0.0004046654079454424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H4">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I4">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J4">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N4">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O4">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P4">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q4">
-        <v>59.07221244419574</v>
+        <v>1.77995217959</v>
       </c>
       <c r="R4">
-        <v>59.07221244419574</v>
+        <v>16.01956961631</v>
       </c>
       <c r="S4">
-        <v>0.05317790698817042</v>
+        <v>0.001307055465424084</v>
       </c>
       <c r="T4">
-        <v>0.05317790698817042</v>
+        <v>0.001307055465424084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H5">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I5">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J5">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N5">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O5">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P5">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q5">
-        <v>98.76669452370186</v>
+        <v>5.329068920495001</v>
       </c>
       <c r="R5">
-        <v>98.76669452370186</v>
+        <v>47.961620284455</v>
       </c>
       <c r="S5">
-        <v>0.08891161982246908</v>
+        <v>0.003913244826475645</v>
       </c>
       <c r="T5">
-        <v>0.08891161982246908</v>
+        <v>0.003913244826475643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>26.6550978723832</v>
+        <v>0.763545</v>
       </c>
       <c r="H6">
-        <v>26.6550978723832</v>
+        <v>2.290635</v>
       </c>
       <c r="I6">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="J6">
-        <v>0.9516021136261364</v>
+        <v>0.02627092156883794</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.3744751134764</v>
+        <v>32.87637133333333</v>
       </c>
       <c r="N6">
-        <v>29.3744751134764</v>
+        <v>98.629114</v>
       </c>
       <c r="O6">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625658</v>
       </c>
       <c r="P6">
-        <v>0.740701120684725</v>
+        <v>0.7016635066625657</v>
       </c>
       <c r="Q6">
-        <v>782.9795090995981</v>
+        <v>25.10258894971</v>
       </c>
       <c r="R6">
-        <v>782.9795090995981</v>
+        <v>225.92330054739</v>
       </c>
       <c r="S6">
-        <v>0.7048527520088324</v>
+        <v>0.01843334695124807</v>
       </c>
       <c r="T6">
-        <v>0.7048527520088324</v>
+        <v>0.01843334695124806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35566155186016</v>
+        <v>26.92240033333333</v>
       </c>
       <c r="H7">
-        <v>1.35566155186016</v>
+        <v>80.767201</v>
       </c>
       <c r="I7">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="J7">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.76374234705781</v>
+        <v>3.946247666666667</v>
       </c>
       <c r="N7">
-        <v>3.76374234705781</v>
+        <v>11.838743</v>
       </c>
       <c r="O7">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876485</v>
       </c>
       <c r="P7">
-        <v>0.09490580388805957</v>
+        <v>0.08422273698876484</v>
       </c>
       <c r="Q7">
-        <v>5.102360791014192</v>
+        <v>106.2424594964826</v>
       </c>
       <c r="R7">
-        <v>5.102360791014192</v>
+        <v>956.1821354683431</v>
       </c>
       <c r="S7">
-        <v>0.004593240312794492</v>
+        <v>0.07801602140623855</v>
       </c>
       <c r="T7">
-        <v>0.004593240312794492</v>
+        <v>0.07801602140623855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35566155186016</v>
+        <v>26.92240033333333</v>
       </c>
       <c r="H8">
-        <v>1.35566155186016</v>
+        <v>80.767201</v>
       </c>
       <c r="I8">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="J8">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.597917168560282</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
-        <v>0.597917168560282</v>
+        <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953872</v>
       </c>
       <c r="P8">
-        <v>0.01507696444339376</v>
+        <v>0.01540354824953871</v>
       </c>
       <c r="Q8">
-        <v>0.8105733166142648</v>
+        <v>19.43074886324389</v>
       </c>
       <c r="R8">
-        <v>0.8105733166142648</v>
+        <v>174.876739769195</v>
       </c>
       <c r="S8">
-        <v>0.0007296932119941533</v>
+        <v>0.01426839821327997</v>
       </c>
       <c r="T8">
-        <v>0.0007296932119941533</v>
+        <v>0.01426839821327996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35566155186016</v>
+        <v>26.92240033333333</v>
       </c>
       <c r="H9">
-        <v>1.35566155186016</v>
+        <v>80.767201</v>
       </c>
       <c r="I9">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="J9">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.21616940695608</v>
+        <v>2.331168666666667</v>
       </c>
       <c r="N9">
-        <v>2.21616940695608</v>
+        <v>6.993506</v>
       </c>
       <c r="O9">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513755</v>
       </c>
       <c r="P9">
-        <v>0.05588250196874074</v>
+        <v>0.04975293546513754</v>
       </c>
       <c r="Q9">
-        <v>3.004375657419089</v>
+        <v>62.76065608852289</v>
       </c>
       <c r="R9">
-        <v>3.004375657419089</v>
+        <v>564.845904796706</v>
       </c>
       <c r="S9">
-        <v>0.002704594980570325</v>
+        <v>0.04608643956547226</v>
       </c>
       <c r="T9">
-        <v>0.002704594980570325</v>
+        <v>0.04608643956547225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.35566155186016</v>
+        <v>26.92240033333333</v>
       </c>
       <c r="H10">
-        <v>1.35566155186016</v>
+        <v>80.767201</v>
       </c>
       <c r="I10">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="J10">
-        <v>0.04839788637386363</v>
+        <v>0.9263059382248019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.70535853953971</v>
+        <v>6.979377666666667</v>
       </c>
       <c r="N10">
-        <v>3.70535853953971</v>
+        <v>20.938133</v>
       </c>
       <c r="O10">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339932</v>
       </c>
       <c r="P10">
-        <v>0.09343360901508095</v>
+        <v>0.1489572726339931</v>
       </c>
       <c r="Q10">
-        <v>5.0232121079107</v>
+        <v>187.9015996195259</v>
       </c>
       <c r="R10">
-        <v>5.0232121079107</v>
+        <v>1691.114396575733</v>
       </c>
       <c r="S10">
-        <v>0.004521989192611888</v>
+        <v>0.1379800061826386</v>
       </c>
       <c r="T10">
-        <v>0.004521989192611888</v>
+        <v>0.1379800061826386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.92240033333333</v>
+      </c>
+      <c r="H11">
+        <v>80.767201</v>
+      </c>
+      <c r="I11">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="J11">
+        <v>0.9263059382248019</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>32.87637133333333</v>
+      </c>
+      <c r="N11">
+        <v>98.629114</v>
+      </c>
+      <c r="O11">
+        <v>0.7016635066625658</v>
+      </c>
+      <c r="P11">
+        <v>0.7016635066625657</v>
+      </c>
+      <c r="Q11">
+        <v>885.1108305433237</v>
+      </c>
+      <c r="R11">
+        <v>7965.997474889914</v>
+      </c>
+      <c r="S11">
+        <v>0.6499550728571726</v>
+      </c>
+      <c r="T11">
+        <v>0.6499550728571725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.134956</v>
+      </c>
+      <c r="I12">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J12">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.946247666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.838743</v>
+      </c>
+      <c r="O12">
+        <v>0.08422273698876485</v>
+      </c>
+      <c r="P12">
+        <v>0.08422273698876484</v>
+      </c>
+      <c r="Q12">
+        <v>5.439186822256445</v>
+      </c>
+      <c r="R12">
+        <v>48.952681400308</v>
+      </c>
+      <c r="S12">
+        <v>0.003994106664781593</v>
+      </c>
+      <c r="T12">
+        <v>0.003994106664781592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.35566155186016</v>
-      </c>
-      <c r="H11">
-        <v>1.35566155186016</v>
-      </c>
-      <c r="I11">
-        <v>0.04839788637386363</v>
-      </c>
-      <c r="J11">
-        <v>0.04839788637386363</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>29.3744751134764</v>
-      </c>
-      <c r="N11">
-        <v>29.3744751134764</v>
-      </c>
-      <c r="O11">
-        <v>0.740701120684725</v>
-      </c>
-      <c r="P11">
-        <v>0.740701120684725</v>
-      </c>
-      <c r="Q11">
-        <v>39.82184651741306</v>
-      </c>
-      <c r="R11">
-        <v>39.82184651741306</v>
-      </c>
-      <c r="S11">
-        <v>0.03584836867589277</v>
-      </c>
-      <c r="T11">
-        <v>0.03584836867589277</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.134956</v>
+      </c>
+      <c r="I13">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J13">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7217316666666668</v>
+      </c>
+      <c r="N13">
+        <v>2.165195</v>
+      </c>
+      <c r="O13">
+        <v>0.01540354824953872</v>
+      </c>
+      <c r="P13">
+        <v>0.01540354824953871</v>
+      </c>
+      <c r="Q13">
+        <v>0.9947762284911112</v>
+      </c>
+      <c r="R13">
+        <v>8.95298605642</v>
+      </c>
+      <c r="S13">
+        <v>0.0007304846283133085</v>
+      </c>
+      <c r="T13">
+        <v>0.0007304846283133082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.134956</v>
+      </c>
+      <c r="I14">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J14">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.331168666666667</v>
+      </c>
+      <c r="N14">
+        <v>6.993506</v>
+      </c>
+      <c r="O14">
+        <v>0.04975293546513755</v>
+      </c>
+      <c r="P14">
+        <v>0.04975293546513754</v>
+      </c>
+      <c r="Q14">
+        <v>3.213093288415111</v>
+      </c>
+      <c r="R14">
+        <v>28.917839595736</v>
+      </c>
+      <c r="S14">
+        <v>0.002359440434241208</v>
+      </c>
+      <c r="T14">
+        <v>0.002359440434241207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.134956</v>
+      </c>
+      <c r="I15">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J15">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.979377666666667</v>
+      </c>
+      <c r="N15">
+        <v>20.938133</v>
+      </c>
+      <c r="O15">
+        <v>0.1489572726339932</v>
+      </c>
+      <c r="P15">
+        <v>0.1489572726339931</v>
+      </c>
+      <c r="Q15">
+        <v>9.619806519683111</v>
+      </c>
+      <c r="R15">
+        <v>86.578258677148</v>
+      </c>
+      <c r="S15">
+        <v>0.007064021624878876</v>
+      </c>
+      <c r="T15">
+        <v>0.007064021624878873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.378318666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.134956</v>
+      </c>
+      <c r="I16">
+        <v>0.04742314020636018</v>
+      </c>
+      <c r="J16">
+        <v>0.04742314020636017</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>32.87637133333333</v>
+      </c>
+      <c r="N16">
+        <v>98.629114</v>
+      </c>
+      <c r="O16">
+        <v>0.7016635066625658</v>
+      </c>
+      <c r="P16">
+        <v>0.7016635066625657</v>
+      </c>
+      <c r="Q16">
+        <v>45.31411630099822</v>
+      </c>
+      <c r="R16">
+        <v>407.827046708984</v>
+      </c>
+      <c r="S16">
+        <v>0.0332750868541452</v>
+      </c>
+      <c r="T16">
+        <v>0.03327508685414519</v>
       </c>
     </row>
   </sheetData>
